--- a/00 - Dataset Excel Sheets/Unique Words with IDs.xlsx
+++ b/00 - Dataset Excel Sheets/Unique Words with IDs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaher.salman\Desktop\LINA JAN 24\Senior II\Senior-Design-Code\Dataset Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaher.salman\Desktop\LINA JAN 24\Senior II\Senior-Design-Code\00 - Dataset Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>UNIQUE_WORDS</t>
   </si>
@@ -405,21 +405,21 @@
   <dxfs count="5">
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -539,7 +539,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -625,267 +625,267 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$94</c:f>
+              <c:f>Sheet2!$B$2:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="31">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="33">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="34">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="35">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="37">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="40">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="41">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="52">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="53">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="54">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="59">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="65">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="66">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="67">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="68">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="69">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="70">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="71">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="72">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="73">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="74">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>87</c:v>
@@ -913,84 +913,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$94</c:f>
+              <c:f>Sheet2!$D$2:$D$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
@@ -999,7 +999,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -1017,10 +1017,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
@@ -1029,16 +1029,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1</c:v>
@@ -1053,19 +1053,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1</c:v>
@@ -1074,7 +1074,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
@@ -1092,7 +1092,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1</c:v>
@@ -1113,7 +1113,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
@@ -1128,7 +1128,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1</c:v>
@@ -1137,7 +1137,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1</c:v>
@@ -1149,13 +1149,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1</c:v>
@@ -1170,10 +1170,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1</c:v>
@@ -1443,7 +1443,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,267 +1558,267 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$94</c:f>
+              <c:f>Sheet2!$B$2:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="31">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="32">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="33">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="34">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="35">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="37">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="39">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="40">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="41">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="52">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="53">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="54">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="59">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="65">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="66">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="67">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="68">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="69">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="70">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="71">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="72">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="73">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="74">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>87</c:v>
@@ -1846,267 +1846,267 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$94</c:f>
+              <c:f>Sheet2!$C$2:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="26">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="27">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="29">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="30">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="31">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="32">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="33">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="34">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="35">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="36">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="37">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
                   <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>733</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2936</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>894</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>451</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>197</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>145</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>735</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="55">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="74">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="79">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="80">
                   <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>144</c:v>
@@ -2313,6 +2313,1245 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COUNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>الله</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>الاشارة</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>انتم</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>الجسم</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>جميع</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>لغة</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>مع</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>الصم</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>الناس</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ايضا</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>تفاعل</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>تمني</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>كلمات</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>احد</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>اسم</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>السامع</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>انا</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>تعليم</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>خلق</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>شرك</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>غدا</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>في</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>لا</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>لقاء</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>موضوع</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>احتمال</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>اخر</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>استمرار</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>اشارة-هم</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>اشارة-هو</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>اعلم</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>اعوذ</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>اقدم</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>اكبر</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>اكتساب</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>الامائيات</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>التعاون</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>الثاني</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>الجزء</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>الجمعة</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>الحمد</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>الحياة</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>الخمس</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>الدين</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>السعودية</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>السلام</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>الصلة</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>العبادة</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>العرب</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>العربية</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>القيامة</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>الكلمة</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>اليوم</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>امتحان</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>اول</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>اين</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>بركة</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>برنامج</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ترحيب</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>تواصل</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>حب</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>خطبة</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>دائما</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>دراسة</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>رحمة</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>رزق</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>سفر</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>شكرا</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>طبية</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>عادية</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>عبادة</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>عليكم</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>عمل</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>غني</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>فايروس</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>فائدة</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>فقير</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>قبول</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>كريم</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>كلمة</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>كلنا</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>كورونا</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>لكم</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>لمن</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>متفرقة</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>مختلف</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>نحن</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>نصائح</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>نكتفي</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>هنا</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>واحد</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>يساعد</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>يوم</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BF4-4964-8CA8-BC52E66A6E35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="965247584"/>
+        <c:axId val="965250496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="965247584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965250496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="965250496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965247584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COUNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>الله</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>الاشارة</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>انتم</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>الجسم</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>جميع</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>لغة</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>مع</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>الصم</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>الناس</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ايضا</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>تفاعل</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>تمني</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>كلمات</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>احد</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>اسم</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>السامع</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>انا</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>تعليم</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>خلق</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>شرك</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>غدا</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>في</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>لا</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>لقاء</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>موضوع</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50E6-40E3-9407-38D98EBF8BE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1013734720"/>
+        <c:axId val="1013739712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1013734720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013739712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013739712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013734720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2393,6 +3632,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3385,17 +4704,989 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>28603</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>176603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>567447</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67553</xdr:rowOff>
@@ -3419,13 +5710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>578114</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
@@ -3442,6 +5733,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26753</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>187974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>296922</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>154635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277461</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40248</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3738,7 +6089,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4510,94 +6861,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="23" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B33" si="0">SUM(D2:W2)</f>
+        <v>34</v>
+      </c>
+      <c r="C2" s="7">
+        <f>SUM(E2:X2)</f>
+        <v>2936</v>
+      </c>
+      <c r="D2" s="7">
+        <f>COUNT(E2:X2)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
         <v>146</v>
       </c>
-      <c r="C2" s="7">
-        <f>COUNT(D2:W2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
+        <v>152</v>
+      </c>
+      <c r="G2" s="5">
+        <v>145</v>
+      </c>
+      <c r="H2" s="5">
         <v>146</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
+      <c r="I2" s="5">
+        <v>151</v>
+      </c>
+      <c r="J2" s="5">
+        <v>147</v>
+      </c>
+      <c r="K2" s="5">
+        <v>152</v>
+      </c>
+      <c r="L2" s="5">
+        <v>141</v>
+      </c>
+      <c r="M2" s="5">
+        <v>147</v>
+      </c>
+      <c r="N2" s="5">
+        <v>146</v>
+      </c>
+      <c r="O2" s="5">
+        <v>153</v>
+      </c>
+      <c r="P2" s="5">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>148</v>
+      </c>
+      <c r="R2" s="5">
+        <v>148</v>
+      </c>
+      <c r="S2" s="5">
+        <v>145</v>
+      </c>
+      <c r="T2" s="5">
+        <v>146</v>
+      </c>
+      <c r="U2" s="5">
+        <v>144</v>
+      </c>
+      <c r="V2" s="5">
+        <v>145</v>
+      </c>
+      <c r="W2" s="5">
+        <v>144</v>
+      </c>
+      <c r="X2" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" si="0"/>
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
-        <f t="shared" ref="C3:C66" si="1">COUNT(D3:W3)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>147</v>
+        <f>SUM(E3:X3)</f>
+        <v>1036</v>
+      </c>
+      <c r="D3" s="7">
+        <f>COUNT(E3:X3)</f>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>152</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="F3" s="5">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>147</v>
+      </c>
+      <c r="H3" s="5">
+        <v>146</v>
+      </c>
+      <c r="I3" s="5">
+        <v>149</v>
+      </c>
+      <c r="J3" s="5">
+        <v>147</v>
+      </c>
+      <c r="K3" s="5">
+        <v>146</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -4610,28 +7018,41 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUM(E4:X4)</f>
+        <v>894</v>
+      </c>
+      <c r="D4" s="7">
+        <f>COUNT(E4:X4)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
         <v>165</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>165</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="5">
+        <v>146</v>
+      </c>
+      <c r="G4" s="5">
+        <v>148</v>
+      </c>
+      <c r="H4" s="5">
+        <v>145</v>
+      </c>
+      <c r="I4" s="5">
+        <v>144</v>
+      </c>
+      <c r="J4" s="5">
+        <v>146</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -4645,27 +7066,38 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(E5:X5)</f>
+        <v>733</v>
+      </c>
+      <c r="D5" s="7">
+        <f>COUNT(E5:X5)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>148</v>
+      </c>
+      <c r="F5" s="5">
         <v>146</v>
       </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="G5" s="5">
+        <v>148</v>
+      </c>
+      <c r="H5" s="5">
         <v>146</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>145</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -4680,29 +7112,38 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(E6:X6)</f>
+        <v>735</v>
+      </c>
+      <c r="D6" s="7">
+        <f>COUNT(E6:X6)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
+        <v>157</v>
+      </c>
+      <c r="F6" s="5">
+        <v>145</v>
+      </c>
+      <c r="G6" s="5">
+        <v>143</v>
+      </c>
+      <c r="H6" s="5">
         <v>146</v>
       </c>
-      <c r="E6" s="5">
+      <c r="I6" s="5">
         <v>144</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -4717,26 +7158,35 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C7" s="7">
+        <f>SUM(E7:X7)</f>
+        <v>594</v>
+      </c>
+      <c r="D7" s="7">
+        <f>COUNT(E7:X7)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>152</v>
+      </c>
+      <c r="F7" s="5">
+        <v>149</v>
+      </c>
+      <c r="G7" s="5">
+        <v>147</v>
+      </c>
+      <c r="H7" s="5">
         <v>146</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>146</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -4752,26 +7202,35 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C8" s="7">
+        <f>SUM(E8:X8)</f>
+        <v>587</v>
+      </c>
+      <c r="D8" s="7">
+        <f>COUNT(E8:X8)</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>149</v>
+      </c>
+      <c r="F8" s="5">
         <v>148</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>148</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5">
+        <v>144</v>
+      </c>
+      <c r="H8" s="5">
+        <v>146</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4787,25 +7246,32 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>145</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <f>SUM(E9:X9)</f>
+        <v>447</v>
+      </c>
+      <c r="D9" s="7">
+        <f>COUNT(E9:X9)</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>157</v>
+      </c>
+      <c r="F9" s="5">
+        <v>146</v>
+      </c>
+      <c r="G9" s="5">
+        <v>144</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4822,25 +7288,32 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="7">
+        <f>SUM(E10:X10)</f>
+        <v>436</v>
+      </c>
+      <c r="D10" s="7">
+        <f>COUNT(E10:X10)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
         <v>145</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>145</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="5">
+        <v>143</v>
+      </c>
+      <c r="G10" s="5">
+        <v>148</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4857,25 +7330,32 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>165</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+        <f>SUM(E11:X11)</f>
+        <v>451</v>
+      </c>
+      <c r="D11" s="7">
+        <f>COUNT(E11:X11)</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>157</v>
+      </c>
+      <c r="F11" s="5">
+        <v>146</v>
+      </c>
+      <c r="G11" s="5">
+        <v>148</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4892,25 +7372,32 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>151</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+        <f>SUM(E12:X12)</f>
+        <v>438</v>
+      </c>
+      <c r="D12" s="7">
+        <f>COUNT(E12:X12)</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>148</v>
+      </c>
+      <c r="F12" s="5">
+        <v>144</v>
+      </c>
+      <c r="G12" s="5">
+        <v>146</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4927,25 +7414,32 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUM(E13:X13)</f>
+        <v>438</v>
+      </c>
+      <c r="D13" s="7">
+        <f>COUNT(E13:X13)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>148</v>
+      </c>
+      <c r="F13" s="5">
         <v>146</v>
       </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>146</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>144</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4962,40 +7456,35 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>13</v>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>1036</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D14" s="5">
-        <v>152</v>
+        <f>SUM(E14:X14)</f>
+        <v>468</v>
+      </c>
+      <c r="D14" s="7">
+        <f>COUNT(E14:X14)</f>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F14" s="5">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G14" s="5">
         <v>146</v>
       </c>
-      <c r="H14" s="5">
-        <v>149</v>
-      </c>
-      <c r="I14" s="5">
-        <v>147</v>
-      </c>
-      <c r="J14" s="5">
-        <v>146</v>
-      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -5009,24 +7498,29 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>14</v>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>149</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <f>SUM(E15:X15)</f>
+        <v>299</v>
+      </c>
+      <c r="D15" s="7">
+        <f>COUNT(E15:X15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>147</v>
+      </c>
+      <c r="F15" s="5">
+        <v>152</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5044,24 +7538,29 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>15</v>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>148</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <f>SUM(E16:X16)</f>
+        <v>290</v>
+      </c>
+      <c r="D16" s="7">
+        <f>COUNT(E16:X16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>146</v>
+      </c>
+      <c r="F16" s="5">
+        <v>144</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -5079,24 +7578,29 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>145</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <f>SUM(E17:X17)</f>
+        <v>303</v>
+      </c>
+      <c r="D17" s="7">
+        <f>COUNT(E17:X17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>157</v>
+      </c>
+      <c r="F17" s="5">
+        <v>146</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -5114,24 +7618,29 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>17</v>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>145</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <f>SUM(E18:X18)</f>
+        <v>351</v>
+      </c>
+      <c r="D18" s="7">
+        <f>COUNT(E18:X18)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>147</v>
+      </c>
+      <c r="F18" s="5">
+        <v>204</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -5149,34 +7658,31 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>18</v>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>84</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" si="0"/>
-        <v>733</v>
+        <v>46</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>148</v>
+        <f>SUM(E19:X19)</f>
+        <v>296</v>
+      </c>
+      <c r="D19" s="7">
+        <f>COUNT(E19:X19)</f>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F19" s="5">
-        <v>148</v>
-      </c>
-      <c r="G19" s="5">
-        <v>146</v>
-      </c>
-      <c r="H19" s="5">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5192,24 +7698,29 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>19</v>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>57</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>144</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+        <f>SUM(E20:X20)</f>
+        <v>296</v>
+      </c>
+      <c r="D20" s="7">
+        <f>COUNT(E20:X20)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>148</v>
+      </c>
+      <c r="F20" s="5">
+        <v>148</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -5227,24 +7738,29 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>20</v>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>152</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <f>SUM(E21:X21)</f>
+        <v>293</v>
+      </c>
+      <c r="D21" s="7">
+        <f>COUNT(E21:X21)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>146</v>
+      </c>
+      <c r="F21" s="5">
+        <v>147</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -5262,24 +7778,29 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>21</v>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="0"/>
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>148</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+        <f>SUM(E22:X22)</f>
+        <v>290</v>
+      </c>
+      <c r="D22" s="7">
+        <f>COUNT(E22:X22)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>146</v>
+      </c>
+      <c r="F22" s="5">
+        <v>144</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -5297,24 +7818,29 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>22</v>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>144</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+        <f>SUM(E23:X23)</f>
+        <v>311</v>
+      </c>
+      <c r="D23" s="7">
+        <f>COUNT(E23:X23)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>165</v>
+      </c>
+      <c r="F23" s="5">
+        <v>146</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5332,24 +7858,29 @@
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>23</v>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>165</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+        <f>SUM(E24:X24)</f>
+        <v>293</v>
+      </c>
+      <c r="D24" s="7">
+        <f>COUNT(E24:X24)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>146</v>
+      </c>
+      <c r="F24" s="5">
+        <v>147</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5367,26 +7898,29 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>24</v>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="0"/>
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E25:X25)</f>
+        <v>289</v>
+      </c>
+      <c r="D25" s="7">
+        <f>COUNT(E25:X25)</f>
         <v>2</v>
       </c>
-      <c r="D25" s="5">
-        <v>157</v>
-      </c>
       <c r="E25" s="5">
-        <v>146</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F25" s="5">
+        <v>144</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5404,24 +7938,29 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>25</v>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>87</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="0"/>
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>197</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <f>SUM(E26:X26)</f>
+        <v>295</v>
+      </c>
+      <c r="D26" s="7">
+        <f>COUNT(E26:X26)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>152</v>
+      </c>
+      <c r="F26" s="5">
+        <v>143</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -5439,23 +7978,26 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>26</v>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E27:X27)</f>
+        <v>146</v>
+      </c>
+      <c r="D27" s="7">
+        <f>COUNT(E27:X27)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="5">
-        <v>145</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>146</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5474,23 +8016,26 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>27</v>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E28:X28)</f>
+        <v>165</v>
+      </c>
+      <c r="D28" s="7">
+        <f>COUNT(E28:X28)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="5">
-        <v>144</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>165</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5509,28 +8054,27 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>28</v>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>70</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="0"/>
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>157</v>
+        <f>SUM(E29:X29)</f>
+        <v>146</v>
+      </c>
+      <c r="D29" s="7">
+        <f>COUNT(E29:X29)</f>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
         <v>146</v>
       </c>
-      <c r="F29" s="5">
-        <v>144</v>
-      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -5548,23 +8092,26 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>29</v>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
       </c>
       <c r="B30" s="7">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E30:X30)</f>
+        <v>146</v>
+      </c>
+      <c r="D30" s="7">
+        <f>COUNT(E30:X30)</f>
         <v>1</v>
       </c>
-      <c r="D30" s="5">
-        <v>152</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>146</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -5583,23 +8130,26 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>30</v>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" si="0"/>
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E31:X31)</f>
+        <v>148</v>
+      </c>
+      <c r="D31" s="7">
+        <f>COUNT(E31:X31)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="5">
-        <v>157</v>
-      </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>148</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -5618,23 +8168,26 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>31</v>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E32:X32)</f>
+        <v>145</v>
+      </c>
+      <c r="D32" s="7">
+        <f>COUNT(E32:X32)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="5">
-        <v>152</v>
-      </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>145</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -5653,23 +8206,26 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>32</v>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E33:X33)</f>
+        <v>145</v>
+      </c>
+      <c r="D33" s="7">
+        <f>COUNT(E33:X33)</f>
         <v>1</v>
       </c>
-      <c r="D33" s="5">
-        <v>144</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>145</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -5688,23 +8244,26 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>33</v>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="7">
-        <f t="shared" ref="B34:B65" si="2">SUM(D34:W34)</f>
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E34:X34)</f>
+        <v>165</v>
+      </c>
+      <c r="D34" s="7">
+        <f>COUNT(E34:X34)</f>
         <v>1</v>
       </c>
-      <c r="D34" s="5">
-        <v>148</v>
-      </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <v>165</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -5723,101 +8282,65 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>34</v>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>86</v>
       </c>
       <c r="B35" s="7">
-        <f t="shared" si="2"/>
-        <v>2936</v>
+        <v>11</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D35" s="5">
+        <f>SUM(E35:X35)</f>
+        <v>151</v>
+      </c>
+      <c r="D35" s="7">
+        <f>COUNT(E35:X35)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>151</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7">
+        <f>SUM(E36:X36)</f>
         <v>146</v>
       </c>
-      <c r="E35" s="5">
-        <v>152</v>
-      </c>
-      <c r="F35" s="5">
-        <v>145</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="D36" s="7">
+        <f>COUNT(E36:X36)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
         <v>146</v>
       </c>
-      <c r="H35" s="5">
-        <v>151</v>
-      </c>
-      <c r="I35" s="5">
-        <v>147</v>
-      </c>
-      <c r="J35" s="5">
-        <v>152</v>
-      </c>
-      <c r="K35" s="5">
-        <v>141</v>
-      </c>
-      <c r="L35" s="5">
-        <v>147</v>
-      </c>
-      <c r="M35" s="5">
-        <v>146</v>
-      </c>
-      <c r="N35" s="5">
-        <v>153</v>
-      </c>
-      <c r="O35" s="5">
-        <v>145</v>
-      </c>
-      <c r="P35" s="5">
-        <v>148</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>148</v>
-      </c>
-      <c r="R35" s="5">
-        <v>145</v>
-      </c>
-      <c r="S35" s="5">
-        <v>146</v>
-      </c>
-      <c r="T35" s="5">
-        <v>144</v>
-      </c>
-      <c r="U35" s="5">
-        <v>145</v>
-      </c>
-      <c r="V35" s="5">
-        <v>144</v>
-      </c>
-      <c r="W35" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7">
-        <f t="shared" si="2"/>
-        <v>436</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D36" s="5">
-        <v>145</v>
-      </c>
-      <c r="E36" s="5">
-        <v>143</v>
-      </c>
-      <c r="F36" s="5">
-        <v>148</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -5835,23 +8358,26 @@
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>36</v>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>88</v>
       </c>
       <c r="B37" s="7">
-        <f t="shared" si="2"/>
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E37:X37)</f>
+        <v>149</v>
+      </c>
+      <c r="D37" s="7">
+        <f>COUNT(E37:X37)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="5">
-        <v>165</v>
-      </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5">
+        <v>149</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -5870,23 +8396,26 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>37</v>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="7">
-        <f t="shared" si="2"/>
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E38:X38)</f>
+        <v>148</v>
+      </c>
+      <c r="D38" s="7">
+        <f>COUNT(E38:X38)</f>
         <v>1</v>
       </c>
-      <c r="D38" s="5">
-        <v>146</v>
-      </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5">
+        <v>148</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -5905,24 +8434,25 @@
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>38</v>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>74</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" si="2"/>
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D39" s="5">
-        <v>147</v>
+        <f>SUM(E39:X39)</f>
+        <v>145</v>
+      </c>
+      <c r="D39" s="7">
+        <f>COUNT(E39:X39)</f>
+        <v>1</v>
       </c>
       <c r="E39" s="5">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -5942,37 +8472,30 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>39</v>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" si="2"/>
-        <v>894</v>
+        <v>17</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D40" s="5">
-        <v>165</v>
+        <f>SUM(E40:X40)</f>
+        <v>145</v>
+      </c>
+      <c r="D40" s="7">
+        <f>COUNT(E40:X40)</f>
+        <v>1</v>
       </c>
       <c r="E40" s="5">
-        <v>146</v>
-      </c>
-      <c r="F40" s="5">
-        <v>148</v>
-      </c>
-      <c r="G40" s="5">
         <v>145</v>
       </c>
-      <c r="H40" s="5">
-        <v>144</v>
-      </c>
-      <c r="I40" s="5">
-        <v>146</v>
-      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5987,23 +8510,26 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>40</v>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <f>SUM(E41:X41)</f>
         <v>144</v>
       </c>
-      <c r="C41" s="7">
-        <f t="shared" si="1"/>
+      <c r="D41" s="7">
+        <f>COUNT(E41:X41)</f>
         <v>1</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>144</v>
       </c>
-      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -6022,28 +8548,27 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>41</v>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" si="2"/>
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D42" s="5">
-        <v>157</v>
+        <f>SUM(E42:X42)</f>
+        <v>152</v>
+      </c>
+      <c r="D42" s="7">
+        <f>COUNT(E42:X42)</f>
+        <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>146</v>
-      </c>
-      <c r="F42" s="5">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -6061,23 +8586,26 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>42</v>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" si="2"/>
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="C43" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E43:X43)</f>
+        <v>148</v>
+      </c>
+      <c r="D43" s="7">
+        <f>COUNT(E43:X43)</f>
         <v>1</v>
       </c>
-      <c r="D43" s="5">
-        <v>197</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>148</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -6096,23 +8624,26 @@
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>43</v>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C44" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E44:X44)</f>
+        <v>144</v>
+      </c>
+      <c r="D44" s="7">
+        <f>COUNT(E44:X44)</f>
         <v>1</v>
       </c>
-      <c r="D44" s="5">
-        <v>145</v>
-      </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>144</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -6131,23 +8662,26 @@
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>44</v>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>26</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C45" s="7">
+        <f>SUM(E45:X45)</f>
         <v>165</v>
       </c>
-      <c r="C45" s="7">
-        <f t="shared" si="1"/>
+      <c r="D45" s="7">
+        <f>COUNT(E45:X45)</f>
         <v>1</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>165</v>
       </c>
-      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -6166,23 +8700,26 @@
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>45</v>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>27</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C46" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E46:X46)</f>
+        <v>197</v>
+      </c>
+      <c r="D46" s="7">
+        <f>COUNT(E46:X46)</f>
         <v>1</v>
       </c>
-      <c r="D46" s="5">
-        <v>148</v>
-      </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5">
+        <v>197</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -6201,24 +8738,25 @@
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>46</v>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" si="2"/>
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D47" s="5">
-        <v>149</v>
+        <f>SUM(E47:X47)</f>
+        <v>145</v>
+      </c>
+      <c r="D47" s="7">
+        <f>COUNT(E47:X47)</f>
+        <v>1</v>
       </c>
       <c r="E47" s="5">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -6238,28 +8776,27 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>47</v>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>85</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" si="2"/>
-        <v>438</v>
+        <v>27</v>
       </c>
       <c r="C48" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D48" s="5">
-        <v>148</v>
+        <f>SUM(E48:X48)</f>
+        <v>144</v>
+      </c>
+      <c r="D48" s="7">
+        <f>COUNT(E48:X48)</f>
+        <v>1</v>
       </c>
       <c r="E48" s="5">
         <v>144</v>
       </c>
-      <c r="F48" s="5">
-        <v>146</v>
-      </c>
+      <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -6277,28 +8814,27 @@
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>48</v>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>82</v>
       </c>
       <c r="B49" s="7">
-        <f t="shared" si="2"/>
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D49" s="5">
-        <v>148</v>
+        <f>SUM(E49:X49)</f>
+        <v>152</v>
+      </c>
+      <c r="D49" s="7">
+        <f>COUNT(E49:X49)</f>
+        <v>1</v>
       </c>
       <c r="E49" s="5">
-        <v>146</v>
-      </c>
-      <c r="F49" s="5">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -6316,23 +8852,26 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
-        <v>49</v>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>79</v>
       </c>
       <c r="B50" s="7">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C50" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E50:X50)</f>
+        <v>157</v>
+      </c>
+      <c r="D50" s="7">
+        <f>COUNT(E50:X50)</f>
         <v>1</v>
       </c>
-      <c r="D50" s="5">
-        <v>144</v>
-      </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>157</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -6351,34 +8890,29 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
-        <v>50</v>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>90</v>
       </c>
       <c r="B51" s="7">
-        <f t="shared" si="2"/>
-        <v>735</v>
+        <v>31</v>
       </c>
       <c r="C51" s="7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>157</v>
+        <f>SUM(E51:X51)</f>
+        <v>152</v>
+      </c>
+      <c r="D51" s="7">
+        <f>COUNT(E51:X51)</f>
+        <v>1</v>
       </c>
       <c r="E51" s="5">
-        <v>145</v>
-      </c>
-      <c r="F51" s="5">
-        <v>143</v>
-      </c>
-      <c r="G51" s="5">
-        <v>146</v>
-      </c>
-      <c r="H51" s="5">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6394,23 +8928,26 @@
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
-        <v>51</v>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>37</v>
       </c>
       <c r="B52" s="7">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C52" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E52:X52)</f>
+        <v>144</v>
+      </c>
+      <c r="D52" s="7">
+        <f>COUNT(E52:X52)</f>
         <v>1</v>
       </c>
-      <c r="D52" s="5">
-        <v>147</v>
-      </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>144</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -6429,23 +8966,26 @@
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
-        <v>52</v>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>80</v>
       </c>
       <c r="B53" s="7">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C53" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E53:X53)</f>
+        <v>148</v>
+      </c>
+      <c r="D53" s="7">
+        <f>COUNT(E53:X53)</f>
         <v>1</v>
       </c>
-      <c r="D53" s="5">
-        <v>144</v>
-      </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>148</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -6464,24 +9004,25 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
-        <v>53</v>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>89</v>
       </c>
       <c r="B54" s="7">
-        <f t="shared" si="2"/>
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="C54" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D54" s="5">
-        <v>148</v>
+        <f>SUM(E54:X54)</f>
+        <v>165</v>
+      </c>
+      <c r="D54" s="7">
+        <f>COUNT(E54:X54)</f>
+        <v>1</v>
       </c>
       <c r="E54" s="5">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -6501,23 +9042,26 @@
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
-        <v>54</v>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>17</v>
       </c>
       <c r="B55" s="7">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C55" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E55:X55)</f>
+        <v>146</v>
+      </c>
+      <c r="D55" s="7">
+        <f>COUNT(E55:X55)</f>
         <v>1</v>
       </c>
-      <c r="D55" s="5">
-        <v>148</v>
-      </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>146</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -6536,23 +9080,26 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
-        <v>55</v>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>68</v>
       </c>
       <c r="B56" s="7">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="C56" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E56:X56)</f>
+        <v>144</v>
+      </c>
+      <c r="D56" s="7">
+        <f>COUNT(E56:X56)</f>
         <v>1</v>
       </c>
-      <c r="D56" s="5">
-        <v>152</v>
-      </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>144</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -6571,23 +9118,26 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
-        <v>56</v>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>48</v>
       </c>
       <c r="B57" s="7">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C57" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E57:X57)</f>
+        <v>197</v>
+      </c>
+      <c r="D57" s="7">
+        <f>COUNT(E57:X57)</f>
         <v>1</v>
       </c>
-      <c r="D57" s="5">
-        <v>145</v>
-      </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5">
+        <v>197</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -6606,23 +9156,26 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
-        <v>57</v>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>40</v>
       </c>
       <c r="B58" s="7">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="C58" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E58:X58)</f>
+        <v>145</v>
+      </c>
+      <c r="D58" s="7">
+        <f>COUNT(E58:X58)</f>
         <v>1</v>
       </c>
-      <c r="D58" s="5">
-        <v>147</v>
-      </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5">
+        <v>145</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -6641,23 +9194,26 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
-        <v>58</v>
+      <c r="X58" s="5"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59" s="7">
-        <f t="shared" si="2"/>
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E59:X59)</f>
+        <v>165</v>
+      </c>
+      <c r="D59" s="7">
+        <f>COUNT(E59:X59)</f>
         <v>1</v>
       </c>
-      <c r="D59" s="5">
-        <v>204</v>
-      </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>165</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -6676,24 +9232,25 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
-        <v>59</v>
+      <c r="X59" s="5"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>30</v>
       </c>
       <c r="B60" s="7">
-        <f t="shared" si="2"/>
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="C60" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D60" s="5">
-        <v>146</v>
+        <f>SUM(E60:X60)</f>
+        <v>148</v>
+      </c>
+      <c r="D60" s="7">
+        <f>COUNT(E60:X60)</f>
+        <v>1</v>
       </c>
       <c r="E60" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -6713,23 +9270,26 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
-        <v>60</v>
+      <c r="X60" s="5"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>51</v>
       </c>
       <c r="B61" s="7">
-        <f t="shared" si="2"/>
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E61:X61)</f>
+        <v>144</v>
+      </c>
+      <c r="D61" s="7">
+        <f>COUNT(E61:X61)</f>
         <v>1</v>
       </c>
-      <c r="D61" s="5">
-        <v>146</v>
-      </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>144</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -6748,23 +9308,26 @@
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
-        <v>61</v>
+      <c r="X61" s="5"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>47</v>
       </c>
       <c r="B62" s="7">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E62:X62)</f>
+        <v>147</v>
+      </c>
+      <c r="D62" s="7">
+        <f>COUNT(E62:X62)</f>
         <v>1</v>
       </c>
-      <c r="D62" s="5">
-        <v>145</v>
-      </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5">
+        <v>147</v>
+      </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -6783,23 +9346,26 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
-        <v>62</v>
+      <c r="X62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>52</v>
       </c>
       <c r="B63" s="7">
-        <f t="shared" si="2"/>
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E63:X63)</f>
+        <v>144</v>
+      </c>
+      <c r="D63" s="7">
+        <f>COUNT(E63:X63)</f>
         <v>1</v>
       </c>
-      <c r="D63" s="5">
-        <v>157</v>
-      </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>144</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -6818,23 +9384,26 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
-        <v>63</v>
+      <c r="X63" s="5"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>56</v>
       </c>
       <c r="B64" s="7">
-        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C64" s="7">
+        <f>SUM(E64:X64)</f>
         <v>148</v>
       </c>
-      <c r="C64" s="7">
-        <f t="shared" si="1"/>
+      <c r="D64" s="7">
+        <f>COUNT(E64:X64)</f>
         <v>1</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
         <v>148</v>
       </c>
-      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -6853,23 +9422,26 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
-        <v>64</v>
+      <c r="X64" s="5"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>75</v>
       </c>
       <c r="B65" s="7">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C65" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E65:X65)</f>
+        <v>152</v>
+      </c>
+      <c r="D65" s="7">
+        <f>COUNT(E65:X65)</f>
         <v>1</v>
       </c>
-      <c r="D65" s="5">
-        <v>145</v>
-      </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5">
+        <v>152</v>
+      </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -6888,23 +9460,26 @@
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
-        <v>65</v>
+      <c r="X65" s="5"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>50</v>
       </c>
       <c r="B66" s="7">
-        <f t="shared" ref="B66:B94" si="3">SUM(D66:W66)</f>
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="C66" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E66:X66)</f>
+        <v>145</v>
+      </c>
+      <c r="D66" s="7">
+        <f>COUNT(E66:X66)</f>
         <v>1</v>
       </c>
-      <c r="D66" s="5">
-        <v>146</v>
-      </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5">
+        <v>145</v>
+      </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -6923,24 +9498,25 @@
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
-        <v>66</v>
+      <c r="X66" s="5"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>14</v>
       </c>
       <c r="B67" s="7">
-        <f t="shared" si="3"/>
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" ref="C67:C94" si="4">COUNT(D67:W67)</f>
-        <v>2</v>
-      </c>
-      <c r="D67" s="5">
-        <v>146</v>
+        <f>SUM(E67:X67)</f>
+        <v>147</v>
+      </c>
+      <c r="D67" s="7">
+        <f>COUNT(E67:X67)</f>
+        <v>1</v>
       </c>
       <c r="E67" s="5">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -6960,23 +9536,26 @@
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>67</v>
+      <c r="X67" s="5"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" si="3"/>
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E68:X68)</f>
+        <v>204</v>
+      </c>
+      <c r="D68" s="7">
+        <f>COUNT(E68:X68)</f>
         <v>1</v>
       </c>
-      <c r="D68" s="5">
-        <v>153</v>
-      </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5">
+        <v>204</v>
+      </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -6995,23 +9574,26 @@
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
-        <v>68</v>
+      <c r="X68" s="5"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>10</v>
       </c>
       <c r="B69" s="7">
-        <f t="shared" si="3"/>
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E69:X69)</f>
+        <v>146</v>
+      </c>
+      <c r="D69" s="7">
+        <f>COUNT(E69:X69)</f>
         <v>1</v>
       </c>
-      <c r="D69" s="5">
-        <v>143</v>
-      </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5">
+        <v>146</v>
+      </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -7030,23 +9612,26 @@
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
-        <v>69</v>
+      <c r="X69" s="5"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>91</v>
       </c>
       <c r="B70" s="7">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E70:X70)</f>
+        <v>145</v>
+      </c>
+      <c r="D70" s="7">
+        <f>COUNT(E70:X70)</f>
         <v>1</v>
       </c>
-      <c r="D70" s="5">
-        <v>144</v>
-      </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5">
+        <v>145</v>
+      </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -7065,23 +9650,26 @@
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
-        <v>70</v>
+      <c r="X70" s="5"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>31</v>
       </c>
       <c r="B71" s="7">
-        <f t="shared" si="3"/>
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E71:X71)</f>
+        <v>157</v>
+      </c>
+      <c r="D71" s="7">
+        <f>COUNT(E71:X71)</f>
         <v>1</v>
       </c>
-      <c r="D71" s="5">
-        <v>146</v>
-      </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5">
+        <v>157</v>
+      </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -7100,24 +9688,25 @@
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
-        <v>71</v>
+      <c r="X71" s="5"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>29</v>
       </c>
       <c r="B72" s="7">
-        <f t="shared" si="3"/>
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D72" s="5">
-        <v>165</v>
+        <f>SUM(E72:X72)</f>
+        <v>148</v>
+      </c>
+      <c r="D72" s="7">
+        <f>COUNT(E72:X72)</f>
+        <v>1</v>
       </c>
       <c r="E72" s="5">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -7137,23 +9726,26 @@
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
-        <v>72</v>
+      <c r="X72" s="5"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>21</v>
       </c>
       <c r="B73" s="7">
-        <f t="shared" si="3"/>
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E73:X73)</f>
+        <v>145</v>
+      </c>
+      <c r="D73" s="7">
+        <f>COUNT(E73:X73)</f>
         <v>1</v>
       </c>
-      <c r="D73" s="5">
-        <v>146</v>
-      </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5">
+        <v>145</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -7172,23 +9764,26 @@
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
-        <v>73</v>
+      <c r="X73" s="5"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>33</v>
       </c>
       <c r="B74" s="7">
-        <f t="shared" si="3"/>
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E74:X74)</f>
+        <v>146</v>
+      </c>
+      <c r="D74" s="7">
+        <f>COUNT(E74:X74)</f>
         <v>1</v>
       </c>
-      <c r="D74" s="5">
-        <v>141</v>
-      </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5">
+        <v>146</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -7207,28 +9802,27 @@
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
-        <v>74</v>
+      <c r="X74" s="5"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>49</v>
       </c>
       <c r="B75" s="7">
-        <f t="shared" si="3"/>
-        <v>468</v>
+        <v>67</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="D75" s="5">
-        <v>165</v>
+        <f>SUM(E75:X75)</f>
+        <v>153</v>
+      </c>
+      <c r="D75" s="7">
+        <f>COUNT(E75:X75)</f>
+        <v>1</v>
       </c>
       <c r="E75" s="5">
-        <v>157</v>
-      </c>
-      <c r="F75" s="5">
-        <v>146</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -7246,23 +9840,26 @@
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
-        <v>75</v>
+      <c r="X75" s="5"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>38</v>
       </c>
       <c r="B76" s="7">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E76:X76)</f>
+        <v>143</v>
+      </c>
+      <c r="D76" s="7">
+        <f>COUNT(E76:X76)</f>
         <v>1</v>
       </c>
-      <c r="D76" s="5">
-        <v>144</v>
-      </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5">
+        <v>143</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -7281,23 +9878,26 @@
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
-        <v>76</v>
+      <c r="X76" s="5"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>72</v>
       </c>
       <c r="B77" s="7">
-        <f t="shared" si="3"/>
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E77:X77)</f>
+        <v>144</v>
+      </c>
+      <c r="D77" s="7">
+        <f>COUNT(E77:X77)</f>
         <v>1</v>
       </c>
-      <c r="D77" s="5">
-        <v>146</v>
-      </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5">
+        <v>144</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -7316,23 +9916,26 @@
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
-        <v>77</v>
+      <c r="X77" s="5"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>15</v>
       </c>
       <c r="B78" s="7">
-        <f t="shared" si="3"/>
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E78:X78)</f>
+        <v>146</v>
+      </c>
+      <c r="D78" s="7">
+        <f>COUNT(E78:X78)</f>
         <v>1</v>
       </c>
-      <c r="D78" s="5">
-        <v>143</v>
-      </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5">
+        <v>146</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -7351,24 +9954,25 @@
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
-        <v>78</v>
+      <c r="X78" s="5"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>61</v>
       </c>
       <c r="B79" s="7">
-        <f t="shared" si="3"/>
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D79" s="5">
+        <f>SUM(E79:X79)</f>
         <v>146</v>
       </c>
+      <c r="D79" s="7">
+        <f>COUNT(E79:X79)</f>
+        <v>1</v>
+      </c>
       <c r="E79" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -7388,31 +9992,28 @@
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
-        <v>79</v>
+      <c r="X79" s="5"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>92</v>
       </c>
       <c r="B80" s="7">
-        <f t="shared" si="3"/>
-        <v>594</v>
+        <v>73</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D80" s="5">
-        <v>152</v>
+        <f>SUM(E80:X80)</f>
+        <v>141</v>
+      </c>
+      <c r="D80" s="7">
+        <f>COUNT(E80:X80)</f>
+        <v>1</v>
       </c>
       <c r="E80" s="5">
-        <v>149</v>
-      </c>
-      <c r="F80" s="5">
-        <v>147</v>
-      </c>
-      <c r="G80" s="5">
-        <v>146</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -7429,21 +10030,22 @@
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
-        <v>80</v>
+      <c r="X80" s="5"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>12</v>
       </c>
       <c r="B81" s="7">
-        <f t="shared" si="3"/>
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D81" s="5">
-        <v>145</v>
+        <f>SUM(E81:X81)</f>
+        <v>144</v>
+      </c>
+      <c r="D81" s="7">
+        <f>COUNT(E81:X81)</f>
+        <v>1</v>
       </c>
       <c r="E81" s="5">
         <v>144</v>
@@ -7466,23 +10068,26 @@
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
-        <v>81</v>
+      <c r="X81" s="5"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>93</v>
       </c>
       <c r="B82" s="7">
-        <f t="shared" si="3"/>
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E82:X82)</f>
+        <v>146</v>
+      </c>
+      <c r="D82" s="7">
+        <f>COUNT(E82:X82)</f>
         <v>1</v>
       </c>
-      <c r="D82" s="5">
-        <v>148</v>
-      </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5">
+        <v>146</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -7501,23 +10106,26 @@
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
-        <v>82</v>
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>53</v>
       </c>
       <c r="B83" s="7">
-        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C83" s="7">
+        <f>SUM(E83:X83)</f>
         <v>143</v>
       </c>
-      <c r="C83" s="7">
-        <f t="shared" si="4"/>
+      <c r="D83" s="7">
+        <f>COUNT(E83:X83)</f>
         <v>1</v>
       </c>
-      <c r="D83" s="5">
+      <c r="E83" s="5">
         <v>143</v>
       </c>
-      <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -7536,23 +10144,26 @@
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
-        <v>83</v>
+      <c r="X83" s="5"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>28</v>
       </c>
       <c r="B84" s="7">
-        <f t="shared" si="3"/>
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E84:X84)</f>
+        <v>148</v>
+      </c>
+      <c r="D84" s="7">
+        <f>COUNT(E84:X84)</f>
         <v>1</v>
       </c>
-      <c r="D84" s="5">
-        <v>165</v>
-      </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5">
+        <v>148</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -7571,23 +10182,26 @@
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
-        <v>84</v>
+      <c r="X84" s="5"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>18</v>
       </c>
       <c r="B85" s="7">
-        <f t="shared" si="3"/>
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="4"/>
+        <f>SUM(E85:X85)</f>
+        <v>143</v>
+      </c>
+      <c r="D85" s="7">
+        <f>COUNT(E85:X85)</f>
         <v>1</v>
       </c>
-      <c r="D85" s="5">
-        <v>146</v>
-      </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5">
+        <v>143</v>
+      </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -7606,31 +10220,28 @@
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
-        <v>85</v>
+      <c r="X85" s="5"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>22</v>
       </c>
       <c r="B86" s="7">
-        <f t="shared" si="3"/>
-        <v>587</v>
+        <v>83</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="D86" s="5">
-        <v>149</v>
+        <f>SUM(E86:X86)</f>
+        <v>165</v>
+      </c>
+      <c r="D86" s="7">
+        <f>COUNT(E86:X86)</f>
+        <v>1</v>
       </c>
       <c r="E86" s="5">
-        <v>148</v>
-      </c>
-      <c r="F86" s="5">
-        <v>144</v>
-      </c>
-      <c r="G86" s="5">
-        <v>146</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7647,24 +10258,25 @@
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
-        <v>86</v>
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>69</v>
       </c>
       <c r="B87" s="7">
-        <f t="shared" si="3"/>
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D87" s="5">
-        <v>152</v>
+        <f>SUM(E87:X87)</f>
+        <v>146</v>
+      </c>
+      <c r="D87" s="7">
+        <f>COUNT(E87:X87)</f>
+        <v>1</v>
       </c>
       <c r="E87" s="5">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -7684,23 +10296,26 @@
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
+      <c r="X87" s="5"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
-        <f t="shared" si="3"/>
+      <c r="C88" s="7">
+        <f>SUM(E88:X88)</f>
         <v>144</v>
       </c>
-      <c r="C88" s="7">
-        <f t="shared" si="4"/>
+      <c r="D88" s="7">
+        <f>COUNT(E88:X88)</f>
         <v>1</v>
       </c>
-      <c r="D88" s="5">
+      <c r="E88" s="5">
         <v>144</v>
       </c>
-      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -7719,23 +10334,26 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A89" s="7">
+      <c r="X88" s="5"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="7">
-        <f t="shared" si="3"/>
+      <c r="C89" s="7">
+        <f>SUM(E89:X89)</f>
         <v>145</v>
       </c>
-      <c r="C89" s="7">
-        <f t="shared" si="4"/>
+      <c r="D89" s="7">
+        <f>COUNT(E89:X89)</f>
         <v>1</v>
       </c>
-      <c r="D89" s="5">
+      <c r="E89" s="5">
         <v>145</v>
       </c>
-      <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -7754,23 +10372,26 @@
       <c r="U89" s="5"/>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
+      <c r="X89" s="5"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
-        <f t="shared" si="3"/>
+      <c r="C90" s="7">
+        <f>SUM(E90:X90)</f>
         <v>145</v>
       </c>
-      <c r="C90" s="7">
-        <f t="shared" si="4"/>
+      <c r="D90" s="7">
+        <f>COUNT(E90:X90)</f>
         <v>1</v>
       </c>
-      <c r="D90" s="5">
+      <c r="E90" s="5">
         <v>145</v>
       </c>
-      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -7789,23 +10410,26 @@
       <c r="U90" s="5"/>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A91" s="7">
+      <c r="X90" s="5"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="7">
-        <f t="shared" si="3"/>
+      <c r="C91" s="7">
+        <f>SUM(E91:X91)</f>
         <v>145</v>
       </c>
-      <c r="C91" s="7">
-        <f t="shared" si="4"/>
+      <c r="D91" s="7">
+        <f>COUNT(E91:X91)</f>
         <v>1</v>
       </c>
-      <c r="D91" s="5">
+      <c r="E91" s="5">
         <v>145</v>
       </c>
-      <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -7824,23 +10448,26 @@
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A92" s="7">
+      <c r="X91" s="5"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="7">
-        <f t="shared" si="3"/>
+      <c r="C92" s="7">
+        <f>SUM(E92:X92)</f>
         <v>152</v>
       </c>
-      <c r="C92" s="7">
-        <f t="shared" si="4"/>
+      <c r="D92" s="7">
+        <f>COUNT(E92:X92)</f>
         <v>1</v>
       </c>
-      <c r="D92" s="5">
+      <c r="E92" s="5">
         <v>152</v>
       </c>
-      <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -7859,23 +10486,26 @@
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A93" s="7">
+      <c r="X92" s="5"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
-        <f t="shared" si="3"/>
+      <c r="C93" s="7">
+        <f>SUM(E93:X93)</f>
         <v>145</v>
       </c>
-      <c r="C93" s="7">
-        <f t="shared" si="4"/>
+      <c r="D93" s="7">
+        <f>COUNT(E93:X93)</f>
         <v>1</v>
       </c>
-      <c r="D93" s="5">
+      <c r="E93" s="5">
         <v>145</v>
       </c>
-      <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -7894,23 +10524,26 @@
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A94" s="7">
+      <c r="X93" s="5"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
-        <f t="shared" si="3"/>
+      <c r="C94" s="7">
+        <f>SUM(E94:X94)</f>
         <v>144</v>
       </c>
-      <c r="C94" s="7">
-        <f t="shared" si="4"/>
+      <c r="D94" s="7">
+        <f>COUNT(E94:X94)</f>
         <v>1</v>
       </c>
-      <c r="D94" s="5">
+      <c r="E94" s="5">
         <v>144</v>
       </c>
-      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -7929,32 +10562,37 @@
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B94">
+  <sortState ref="A1:X94">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C94">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>288</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:W94">
+  <conditionalFormatting sqref="E2:X94">
     <cfRule type="notContainsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
+      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B1048576">
+  <conditionalFormatting sqref="C2:C1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C94">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D2:D94">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>